--- a/non_resident.xlsx
+++ b/non_resident.xlsx
@@ -1397,7 +1397,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MB BCh (N U Irel)</t>
+          <t>LRCP (Lond)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1424,7 +1424,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MRCS (Eng)</t>
+          <t>MB BCh (N U Irel)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LRCP (Lond)</t>
+          <t>MRCS (Eng)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -6249,7 +6249,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t>FRCS Glasg</t>
+          <t>FRCS Edin</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>FRCS Edin</t>
+          <t>FRCS Glasg</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -9507,7 +9507,7 @@
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr">
         <is>
-          <t>FFA RCS Irel</t>
+          <t>FRCA</t>
         </is>
       </c>
       <c r="H329" t="inlineStr"/>
@@ -9534,7 +9534,7 @@
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
         <is>
-          <t>FRCA</t>
+          <t>FFA RCS Irel</t>
         </is>
       </c>
       <c r="H330" t="inlineStr"/>
@@ -10607,7 +10607,7 @@
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr">
         <is>
-          <t>LRCS (Edin)</t>
+          <t>LRCPS (Glasg)</t>
         </is>
       </c>
       <c r="H369" t="inlineStr"/>
@@ -10634,7 +10634,7 @@
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr">
         <is>
-          <t>LRCP (Edin)</t>
+          <t>LRCS (Edin)</t>
         </is>
       </c>
       <c r="H370" t="inlineStr"/>
@@ -10661,7 +10661,7 @@
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr">
         <is>
-          <t>LRCPS (Glasg)</t>
+          <t>LRCP (Edin)</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -14394,7 +14394,7 @@
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>MB BS (Lond)</t>
+          <t>LRCP (Lond)</t>
         </is>
       </c>
       <c r="H506" t="inlineStr"/>
@@ -14425,7 +14425,7 @@
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>LRCP (Lond)</t>
+          <t>MRCS (Eng)</t>
         </is>
       </c>
       <c r="H507" t="inlineStr"/>
@@ -14456,7 +14456,7 @@
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>MRCS (Eng)</t>
+          <t>MB BS (Lond)</t>
         </is>
       </c>
       <c r="H508" t="inlineStr"/>
@@ -15410,7 +15410,7 @@
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>MB BS (Lond)</t>
+          <t>LRCP (Lond)</t>
         </is>
       </c>
       <c r="H542" t="inlineStr"/>
@@ -15437,7 +15437,7 @@
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>MRCS (Eng)</t>
+          <t>MB BS (Lond)</t>
         </is>
       </c>
       <c r="H543" t="inlineStr"/>
@@ -15464,7 +15464,7 @@
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
         <is>
-          <t>LRCP (Lond)</t>
+          <t>MRCS (Eng)</t>
         </is>
       </c>
       <c r="H544" t="inlineStr"/>
